--- a/tmp_client/doc/TMP_EIT_suites/flow_00_design_entry_all.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/flow_00_design_entry_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syan\Documents\My Received Files\to_shawn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0sngsN6DrFUqmuDZZhkIhd0EivD5xjZ0nj5fkMPZg+GIws2dGdQ895P+5SBGWtagLIQbEIRaHiBSjM2rhskk/Q==" workbookSaltValue="j22CHco5Hi8vlbKkcb9mlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
+    <definedName name="Z_55511F27_786D_4DA3_B997_DC65FAAF8ACA_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Shawn Yan - Personal View" guid="{55511F27-786D-4DA3-B997-DC65FAAF8ACA}" mergeInterval="0" personalView="1" xWindow="-1890" windowWidth="2952" windowHeight="1040" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="426">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1367,6 +1369,174 @@
   </si>
   <si>
     <t>flow_00_design_entry_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c1_lse                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c2_lse                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c3_lse                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c4_lse                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c1_synplify                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c3_synplify                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c4_synplify                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c1_lse                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c2_lse                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c3_lse                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c4_lse                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c5_lse                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c1_synplify                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c2_synplify                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c3_synplify                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c4_synplify                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c5_synplify                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/cntbuf_lse                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/com_top_lse                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_lse              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/press_lse                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/press_ldc_lse                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/press_pdc_lse                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/vlog_call_vhdl_lse           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/cntbuf_synplify              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/com_top_synplify             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_synplify         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/press_synplify               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/press_ldc_synplify           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/press_pdc_synplify           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/vlog_call_vhdl_synplify      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/MutilVM/Multi_subvm_lse                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/MutilVM/Multi_subvm_syn                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/OnlyVM/Verilog_lse                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/OnlyVM/verilog_syn                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/OnlyVM/vhdl_lse                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/OnlyVM/vhdl_syn                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topverilog_vmsyn_lse                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topverilog_vmsyn_syn                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topverilog_vmvhdl_lse                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topverilog_vmvhdl_syn                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topvhl_vmsyn_lse                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topvhl_vmsyn_syn                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topvhl_vmvhdl_lse                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/SubVM/topvhl_vmvhdl_syn                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c3_lse_Jedi                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c4_lse_Jedi                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_lse_Jedi        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/vlog_call_vhdl_lse_Jedi     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/01_vhdl/01_c3_synplify_Jedi                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/02_verilog/02_c4_synplify_Jedi              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_synplify_Jedi   </t>
+  </si>
+  <si>
+    <t>entry/03_vhdl_verilog/vlog_call_vhdl_synplify_Jedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/JediVM/Multi_subvm_lse_Jedi                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/JediVM/Multi_subvm_syn_Jedi                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_VM/JediVM/topvhl_vmsyn_lse_Jedi               </t>
   </si>
 </sst>
 </file>
@@ -2662,46 +2832,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
@@ -2709,6 +2863,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2725,17 +2882,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -5218,7 +5388,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CE76F582-AE88-4038-86F8-70936213AE75}" diskRevisions="1" revisionId="742" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2042BFA5-9EE7-48BC-B75E-DBCD7DBB5FBC}" diskRevisions="1" revisionId="866" version="12">
   <header guid="{DB40D02A-1C38-451A-8E02-505A412F9BEE}" dateTime="2020-03-04T15:04:22" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5291,11 +5461,1766 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{097607DA-FA57-4FEC-8B49-2F3729D67DD1}" dateTime="2020-03-09T16:06:27" maxSheetId="5" userName="Shawn Yan" r:id="rId10" minRId="743" maxRId="798">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5DA94D26-9AC8-4EBC-8DDB-71489133A023}" dateTime="2020-03-09T16:09:01" maxSheetId="5" userName="Shawn Yan" r:id="rId11" minRId="800" maxRId="810">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2042BFA5-9EE7-48BC-B75E-DBCD7DBB5FBC}" dateTime="2020-03-09T16:10:30" maxSheetId="5" userName="Shawn Yan" r:id="rId12" minRId="811" maxRId="866">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" xfDxf="1" sqref="C3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" xfDxf="1" sqref="C4" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" xfDxf="1" sqref="C5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" xfDxf="1" sqref="C6" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="743" sId="2" xfDxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c1::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="744" sId="2" xfDxf="1" dxf="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c2::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="745" sId="2" xfDxf="1" dxf="1">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="746" sId="2" xfDxf="1" dxf="1">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c4::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="747" sId="2" xfDxf="1" dxf="1">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c1::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="748" sId="2" xfDxf="1" dxf="1">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="749" sId="2" xfDxf="1" dxf="1">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c4::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="750" sId="2" xfDxf="1" dxf="1">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c1::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="751" sId="2" xfDxf="1" dxf="1">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c2::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="752" sId="2" xfDxf="1" dxf="1">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c3::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="753" sId="2" xfDxf="1" dxf="1">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="754" sId="2" xfDxf="1" dxf="1">
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c5::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="755" sId="2" xfDxf="1" dxf="1">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c1::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="756" sId="2" xfDxf="1" dxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c2::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="757" sId="2" xfDxf="1" dxf="1">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c3::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="758" sId="2" xfDxf="1" dxf="1">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="759" sId="2" xfDxf="1" dxf="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c5::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="760" sId="2" xfDxf="1" dxf="1">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/cntbuf::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="761" sId="2" xfDxf="1" dxf="1">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/com_top::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="762" sId="2" xfDxf="1" dxf="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="763" sId="2" xfDxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="764" sId="2" xfDxf="1" dxf="1">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_ldc::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="765" sId="2" xfDxf="1" dxf="1">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_pdc::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="766" sId="2" xfDxf="1" dxf="1">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="767" sId="2" xfDxf="1" dxf="1">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/cntbuf::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="768" sId="2" xfDxf="1" dxf="1">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/com_top::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="769" sId="2" xfDxf="1" dxf="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="770" sId="2" xfDxf="1" dxf="1">
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="771" sId="2" xfDxf="1" dxf="1">
+    <nc r="C31" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_ldc::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="772" sId="2" xfDxf="1" dxf="1">
+    <nc r="C32" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_pdc::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="773" sId="2" xfDxf="1" dxf="1">
+    <nc r="C33" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="774" sId="2" xfDxf="1" dxf="1">
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>Test_VM/MutilVM/Multi_subvm_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="775" sId="2" xfDxf="1" dxf="1">
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t>Test_VM/MutilVM/Multi_subvm_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="776" sId="2" xfDxf="1" dxf="1">
+    <nc r="C36" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/Verilog_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="777" sId="2" xfDxf="1" dxf="1">
+    <nc r="C37" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/verilog_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="778" sId="2" xfDxf="1" dxf="1">
+    <nc r="C38" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/vhdl_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="779" sId="2" xfDxf="1" dxf="1">
+    <nc r="C39" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/vhdl_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="780" sId="2" xfDxf="1" dxf="1">
+    <nc r="C40" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmsyn_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="781" sId="2" xfDxf="1" dxf="1">
+    <nc r="C41" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmsyn_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="782" sId="2" xfDxf="1" dxf="1">
+    <nc r="C42" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmvhdl_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="783" sId="2" xfDxf="1" dxf="1">
+    <nc r="C43" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmvhdl_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="784" sId="2" xfDxf="1" dxf="1">
+    <nc r="C44" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmsyn_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="785" sId="2" xfDxf="1" dxf="1">
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmsyn_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="786" sId="2" xfDxf="1" dxf="1">
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmvhdl_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="787" sId="2" xfDxf="1" dxf="1">
+    <nc r="C47" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmvhdl_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="788" sId="2" xfDxf="1" dxf="1">
+    <nc r="C48" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="789" sId="2" xfDxf="1" dxf="1">
+    <nc r="C49" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="790" sId="2" xfDxf="1" dxf="1">
+    <nc r="C50" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="791" sId="2" xfDxf="1" dxf="1">
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="792" sId="2" xfDxf="1" dxf="1">
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="793" sId="2" xfDxf="1" dxf="1">
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="794" sId="2" xfDxf="1" dxf="1">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="795" sId="2" xfDxf="1" dxf="1">
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::synplify</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="796" sId="2" xfDxf="1" dxf="1">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="797" sId="2" xfDxf="1" dxf="1">
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_syn</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="798" sId="2" xfDxf="1" dxf="1">
+    <nc r="C58" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/topvhl_vmsyn_lse</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_55511F27_786D_4DA3_B997_DC65FAAF8ACA_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AD$2</formula>
+  </rdn>
+  <rcv guid="{55511F27-786D-4DA3-B997-DC65FAAF8ACA}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="800" sId="2" xfDxf="1" dxf="1">
+    <oc r="C48" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::lse</t>
+      </is>
+    </oc>
+    <nc r="C48" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::lse::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="801" sId="2" xfDxf="1" dxf="1">
+    <oc r="C49" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::lse</t>
+      </is>
+    </oc>
+    <nc r="C49" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::lse::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="802" sId="2" xfDxf="1" dxf="1">
+    <oc r="C50" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::lse</t>
+      </is>
+    </oc>
+    <nc r="C50" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::lse::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="803" sId="2" xfDxf="1" dxf="1">
+    <oc r="C51" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::lse</t>
+      </is>
+    </oc>
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::lse::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="804" sId="2" xfDxf="1" dxf="1">
+    <oc r="C52" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::synplify</t>
+      </is>
+    </oc>
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::synplify::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="805" sId="2" xfDxf="1" dxf="1">
+    <oc r="C53" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::synplify</t>
+      </is>
+    </oc>
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::synplify::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="806" sId="2" xfDxf="1" dxf="1">
+    <oc r="C54" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::synplify</t>
+      </is>
+    </oc>
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::synplify::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="807" sId="2" xfDxf="1" dxf="1">
+    <oc r="C55" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::synplify</t>
+      </is>
+    </oc>
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::synplify::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="808" sId="2" xfDxf="1" dxf="1">
+    <oc r="C56" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_lse</t>
+      </is>
+    </oc>
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_lse::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="809" sId="2" xfDxf="1" dxf="1">
+    <oc r="C57" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_syn</t>
+      </is>
+    </oc>
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_syn::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="810" sId="2" xfDxf="1" dxf="1">
+    <oc r="C58" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/topvhl_vmsyn_lse</t>
+      </is>
+    </oc>
+    <nc r="C58" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/topvhl_vmsyn_lse::Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="811" sId="2" xfDxf="1" dxf="1">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c1::lse</t>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c1_lse                            </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="812" sId="2" xfDxf="1" dxf="1">
+    <oc r="C4" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c2::lse</t>
+      </is>
+    </oc>
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c2_lse                            </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="813" sId="2" xfDxf="1" dxf="1">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::lse</t>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c3_lse                            </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="814" sId="2" xfDxf="1" dxf="1">
+    <oc r="C6" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c4::lse</t>
+      </is>
+    </oc>
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c4_lse                            </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="815" sId="2" xfDxf="1" dxf="1">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c1::synplify</t>
+      </is>
+    </oc>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c1_synplify                       </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="816" sId="2" xfDxf="1" dxf="1">
+    <oc r="C8" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::synplify</t>
+      </is>
+    </oc>
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c3_synplify                       </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="817" sId="2" xfDxf="1" dxf="1">
+    <oc r="C9" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c4::synplify</t>
+      </is>
+    </oc>
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c4_synplify                       </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="818" sId="2" xfDxf="1" dxf="1">
+    <oc r="C10" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c1::lse</t>
+      </is>
+    </oc>
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c1_lse                         </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="819" sId="2" xfDxf="1" dxf="1">
+    <oc r="C11" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c2::lse</t>
+      </is>
+    </oc>
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c2_lse                         </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="820" sId="2" xfDxf="1" dxf="1">
+    <oc r="C12" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c3::lse</t>
+      </is>
+    </oc>
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c3_lse                         </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="821" sId="2" xfDxf="1" dxf="1">
+    <oc r="C13" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::lse</t>
+      </is>
+    </oc>
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c4_lse                         </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="822" sId="2" xfDxf="1" dxf="1">
+    <oc r="C14" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c5::lse</t>
+      </is>
+    </oc>
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c5_lse                         </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="823" sId="2" xfDxf="1" dxf="1">
+    <oc r="C15" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c1::synplify</t>
+      </is>
+    </oc>
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c1_synplify                    </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="824" sId="2" xfDxf="1" dxf="1">
+    <oc r="C16" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c2::synplify</t>
+      </is>
+    </oc>
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c2_synplify                    </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="825" sId="2" xfDxf="1" dxf="1">
+    <oc r="C17" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c3::synplify</t>
+      </is>
+    </oc>
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c3_synplify                    </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="826" sId="2" xfDxf="1" dxf="1">
+    <oc r="C18" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::synplify</t>
+      </is>
+    </oc>
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c4_synplify                    </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="827" sId="2" xfDxf="1" dxf="1">
+    <oc r="C19" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c5::synplify</t>
+      </is>
+    </oc>
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c5_synplify                    </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="828" sId="2" xfDxf="1" dxf="1">
+    <oc r="C20" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/cntbuf::lse</t>
+      </is>
+    </oc>
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/cntbuf_lse                   </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="829" sId="2" xfDxf="1" dxf="1">
+    <oc r="C21" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/com_top::lse</t>
+      </is>
+    </oc>
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/com_top_lse                  </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="830" sId="2" xfDxf="1" dxf="1">
+    <oc r="C22" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::lse</t>
+      </is>
+    </oc>
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_lse              </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="831" sId="2" xfDxf="1" dxf="1">
+    <oc r="C23" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press::lse</t>
+      </is>
+    </oc>
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/press_lse                    </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="832" sId="2" xfDxf="1" dxf="1">
+    <oc r="C24" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_ldc::lse</t>
+      </is>
+    </oc>
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/press_ldc_lse                </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="833" sId="2" xfDxf="1" dxf="1">
+    <oc r="C25" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_pdc::lse</t>
+      </is>
+    </oc>
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/press_pdc_lse                </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="834" sId="2" xfDxf="1" dxf="1">
+    <oc r="C26" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::lse</t>
+      </is>
+    </oc>
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/vlog_call_vhdl_lse           </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="835" sId="2" xfDxf="1" dxf="1">
+    <oc r="C27" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/cntbuf::synplify</t>
+      </is>
+    </oc>
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/cntbuf_synplify              </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="836" sId="2" xfDxf="1" dxf="1">
+    <oc r="C28" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/com_top::synplify</t>
+      </is>
+    </oc>
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/com_top_synplify             </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="837" sId="2" xfDxf="1" dxf="1">
+    <oc r="C29" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::synplify</t>
+      </is>
+    </oc>
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_synplify         </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="838" sId="2" xfDxf="1" dxf="1">
+    <oc r="C30" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press::synplify</t>
+      </is>
+    </oc>
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/press_synplify               </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="839" sId="2" xfDxf="1" dxf="1">
+    <oc r="C31" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_ldc::synplify</t>
+      </is>
+    </oc>
+    <nc r="C31" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/press_ldc_synplify           </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="840" sId="2" xfDxf="1" dxf="1">
+    <oc r="C32" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/press_pdc::synplify</t>
+      </is>
+    </oc>
+    <nc r="C32" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/press_pdc_synplify           </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="841" sId="2" xfDxf="1" dxf="1">
+    <oc r="C33" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::synplify</t>
+      </is>
+    </oc>
+    <nc r="C33" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/vlog_call_vhdl_synplify      </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="842" sId="2" xfDxf="1" dxf="1">
+    <oc r="C34" t="inlineStr">
+      <is>
+        <t>Test_VM/MutilVM/Multi_subvm_lse</t>
+      </is>
+    </oc>
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/MutilVM/Multi_subvm_lse                     </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="843" sId="2" xfDxf="1" dxf="1">
+    <oc r="C35" t="inlineStr">
+      <is>
+        <t>Test_VM/MutilVM/Multi_subvm_syn</t>
+      </is>
+    </oc>
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/MutilVM/Multi_subvm_syn                     </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="844" sId="2" xfDxf="1" dxf="1">
+    <oc r="C36" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/Verilog_lse</t>
+      </is>
+    </oc>
+    <nc r="C36" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/OnlyVM/Verilog_lse                          </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="845" sId="2" xfDxf="1" dxf="1">
+    <oc r="C37" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/verilog_syn</t>
+      </is>
+    </oc>
+    <nc r="C37" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/OnlyVM/verilog_syn                          </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="846" sId="2" xfDxf="1" dxf="1">
+    <oc r="C38" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/vhdl_lse</t>
+      </is>
+    </oc>
+    <nc r="C38" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/OnlyVM/vhdl_lse                             </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="847" sId="2" xfDxf="1" dxf="1">
+    <oc r="C39" t="inlineStr">
+      <is>
+        <t>Test_VM/OnlyVM/vhdl_syn</t>
+      </is>
+    </oc>
+    <nc r="C39" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/OnlyVM/vhdl_syn                             </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="848" sId="2" xfDxf="1" dxf="1">
+    <oc r="C40" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmsyn_lse</t>
+      </is>
+    </oc>
+    <nc r="C40" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topverilog_vmsyn_lse                  </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="849" sId="2" xfDxf="1" dxf="1">
+    <oc r="C41" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmsyn_syn</t>
+      </is>
+    </oc>
+    <nc r="C41" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topverilog_vmsyn_syn                  </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="850" sId="2" xfDxf="1" dxf="1">
+    <oc r="C42" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmvhdl_lse</t>
+      </is>
+    </oc>
+    <nc r="C42" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topverilog_vmvhdl_lse                 </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="851" sId="2" xfDxf="1" dxf="1">
+    <oc r="C43" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topverilog_vmvhdl_syn</t>
+      </is>
+    </oc>
+    <nc r="C43" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topverilog_vmvhdl_syn                 </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="852" sId="2" xfDxf="1" dxf="1">
+    <oc r="C44" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmsyn_lse</t>
+      </is>
+    </oc>
+    <nc r="C44" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topvhl_vmsyn_lse                      </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="853" sId="2" xfDxf="1" dxf="1">
+    <oc r="C45" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmsyn_syn</t>
+      </is>
+    </oc>
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topvhl_vmsyn_syn                      </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="854" sId="2" xfDxf="1" dxf="1">
+    <oc r="C46" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmvhdl_lse</t>
+      </is>
+    </oc>
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topvhl_vmvhdl_lse                     </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="855" sId="2" xfDxf="1" dxf="1">
+    <oc r="C47" t="inlineStr">
+      <is>
+        <t>Test_VM/SubVM/topvhl_vmvhdl_syn</t>
+      </is>
+    </oc>
+    <nc r="C47" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/SubVM/topvhl_vmvhdl_syn                     </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="856" sId="2" xfDxf="1" dxf="1">
+    <oc r="C48" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::lse::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C48" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c3_lse_Jedi                      </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="857" sId="2" xfDxf="1" dxf="1">
+    <oc r="C49" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::lse::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C49" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c4_lse_Jedi                   </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="858" sId="2" xfDxf="1" dxf="1">
+    <oc r="C50" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::lse::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C50" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_lse_Jedi        </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="859" sId="2" xfDxf="1" dxf="1">
+    <oc r="C51" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::lse::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/vlog_call_vhdl_lse_Jedi     </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="860" sId="2" xfDxf="1" dxf="1">
+    <oc r="C52" t="inlineStr">
+      <is>
+        <t>entry/01_vhdl/01_c3::synplify::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/01_vhdl/01_c3_synplify_Jedi                 </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="861" sId="2" xfDxf="1" dxf="1">
+    <oc r="C53" t="inlineStr">
+      <is>
+        <t>entry/02_verilog/02_c4::synplify::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/02_verilog/02_c4_synplify_Jedi              </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="862" sId="2" xfDxf="1" dxf="1">
+    <oc r="C54" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/count_mixed::synplify::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t xml:space="preserve">entry/03_vhdl_verilog/count_mixed_synplify_Jedi   </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="863" sId="2" xfDxf="1" dxf="1">
+    <oc r="C55" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl::synplify::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>entry/03_vhdl_verilog/vlog_call_vhdl_synplify_Jedi</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="864" sId="2" xfDxf="1" dxf="1">
+    <oc r="C56" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_lse::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/JediVM/Multi_subvm_lse_Jedi                </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="865" sId="2" xfDxf="1" dxf="1">
+    <oc r="C57" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/Multi_subvm_syn::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/JediVM/Multi_subvm_syn_Jedi                </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="866" sId="2" xfDxf="1" dxf="1">
+    <oc r="C58" t="inlineStr">
+      <is>
+        <t>Test_VM/JediVM/topvhl_vmsyn_lse::Jedi</t>
+      </is>
+    </oc>
+    <nc r="C58" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Test_VM/JediVM/topvhl_vmsyn_lse_Jedi               </t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11194,7 +13119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11281,25 +13206,30 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{55511F27-786D-4DA3-B997-DC65FAAF8ACA}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B1" sqref="B1:B8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B1" sqref="B1:B8"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -11307,12 +13237,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11476,6 +13406,9 @@
       <c r="A3" s="18" t="s">
         <v>271</v>
       </c>
+      <c r="C3" s="18" t="s">
+        <v>370</v>
+      </c>
       <c r="D3" s="18" t="s">
         <v>326</v>
       </c>
@@ -11493,6 +13426,9 @@
       <c r="A4" s="18" t="s">
         <v>272</v>
       </c>
+      <c r="C4" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="D4" s="18" t="s">
         <v>326</v>
       </c>
@@ -11510,6 +13446,9 @@
       <c r="A5" s="18" t="s">
         <v>273</v>
       </c>
+      <c r="C5" s="18" t="s">
+        <v>372</v>
+      </c>
       <c r="D5" s="18" t="s">
         <v>326</v>
       </c>
@@ -11527,6 +13466,9 @@
       <c r="A6" s="18" t="s">
         <v>274</v>
       </c>
+      <c r="C6" s="18" t="s">
+        <v>373</v>
+      </c>
       <c r="D6" s="18" t="s">
         <v>326</v>
       </c>
@@ -11544,6 +13486,9 @@
       <c r="A7" s="18" t="s">
         <v>275</v>
       </c>
+      <c r="C7" s="18" t="s">
+        <v>374</v>
+      </c>
       <c r="D7" s="18" t="s">
         <v>326</v>
       </c>
@@ -11561,6 +13506,9 @@
       <c r="A8" s="18" t="s">
         <v>276</v>
       </c>
+      <c r="C8" s="18" t="s">
+        <v>375</v>
+      </c>
       <c r="D8" s="18" t="s">
         <v>326</v>
       </c>
@@ -11578,6 +13526,9 @@
       <c r="A9" s="18" t="s">
         <v>277</v>
       </c>
+      <c r="C9" s="18" t="s">
+        <v>376</v>
+      </c>
       <c r="D9" s="18" t="s">
         <v>326</v>
       </c>
@@ -11595,6 +13546,9 @@
       <c r="A10" s="18" t="s">
         <v>278</v>
       </c>
+      <c r="C10" s="18" t="s">
+        <v>377</v>
+      </c>
       <c r="D10" s="18" t="s">
         <v>326</v>
       </c>
@@ -11612,6 +13566,9 @@
       <c r="A11" s="18" t="s">
         <v>266</v>
       </c>
+      <c r="C11" s="18" t="s">
+        <v>378</v>
+      </c>
       <c r="D11" s="18" t="s">
         <v>326</v>
       </c>
@@ -11629,6 +13586,9 @@
       <c r="A12" s="18" t="s">
         <v>279</v>
       </c>
+      <c r="C12" s="18" t="s">
+        <v>379</v>
+      </c>
       <c r="D12" s="18" t="s">
         <v>326</v>
       </c>
@@ -11646,6 +13606,9 @@
       <c r="A13" s="18" t="s">
         <v>280</v>
       </c>
+      <c r="C13" s="18" t="s">
+        <v>380</v>
+      </c>
       <c r="D13" s="18" t="s">
         <v>326</v>
       </c>
@@ -11663,6 +13626,9 @@
       <c r="A14" s="18" t="s">
         <v>281</v>
       </c>
+      <c r="C14" s="18" t="s">
+        <v>381</v>
+      </c>
       <c r="D14" s="18" t="s">
         <v>326</v>
       </c>
@@ -11680,6 +13646,9 @@
       <c r="A15" s="18" t="s">
         <v>282</v>
       </c>
+      <c r="C15" s="18" t="s">
+        <v>382</v>
+      </c>
       <c r="D15" s="18" t="s">
         <v>326</v>
       </c>
@@ -11697,6 +13666,9 @@
       <c r="A16" s="18" t="s">
         <v>283</v>
       </c>
+      <c r="C16" s="18" t="s">
+        <v>383</v>
+      </c>
       <c r="D16" s="18" t="s">
         <v>326</v>
       </c>
@@ -11714,6 +13686,9 @@
       <c r="A17" s="18" t="s">
         <v>284</v>
       </c>
+      <c r="C17" s="18" t="s">
+        <v>384</v>
+      </c>
       <c r="D17" s="18" t="s">
         <v>326</v>
       </c>
@@ -11731,6 +13706,9 @@
       <c r="A18" s="18" t="s">
         <v>285</v>
       </c>
+      <c r="C18" s="18" t="s">
+        <v>385</v>
+      </c>
       <c r="D18" s="18" t="s">
         <v>326</v>
       </c>
@@ -11748,6 +13726,9 @@
       <c r="A19" s="18" t="s">
         <v>286</v>
       </c>
+      <c r="C19" s="18" t="s">
+        <v>386</v>
+      </c>
       <c r="D19" s="18" t="s">
         <v>326</v>
       </c>
@@ -11765,6 +13746,9 @@
       <c r="A20" s="18" t="s">
         <v>287</v>
       </c>
+      <c r="C20" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="D20" s="18" t="s">
         <v>326</v>
       </c>
@@ -11782,6 +13766,9 @@
       <c r="A21" s="18" t="s">
         <v>288</v>
       </c>
+      <c r="C21" s="18" t="s">
+        <v>388</v>
+      </c>
       <c r="D21" s="18" t="s">
         <v>326</v>
       </c>
@@ -11799,6 +13786,9 @@
       <c r="A22" s="18" t="s">
         <v>289</v>
       </c>
+      <c r="C22" s="18" t="s">
+        <v>389</v>
+      </c>
       <c r="D22" s="18" t="s">
         <v>326</v>
       </c>
@@ -11816,6 +13806,9 @@
       <c r="A23" s="18" t="s">
         <v>290</v>
       </c>
+      <c r="C23" s="18" t="s">
+        <v>390</v>
+      </c>
       <c r="D23" s="18" t="s">
         <v>326</v>
       </c>
@@ -11833,6 +13826,9 @@
       <c r="A24" s="18" t="s">
         <v>291</v>
       </c>
+      <c r="C24" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="D24" s="18" t="s">
         <v>326</v>
       </c>
@@ -11850,6 +13846,9 @@
       <c r="A25" s="18" t="s">
         <v>292</v>
       </c>
+      <c r="C25" s="18" t="s">
+        <v>392</v>
+      </c>
       <c r="D25" s="18" t="s">
         <v>326</v>
       </c>
@@ -11867,6 +13866,9 @@
       <c r="A26" s="18" t="s">
         <v>293</v>
       </c>
+      <c r="C26" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="D26" s="18" t="s">
         <v>326</v>
       </c>
@@ -11884,6 +13886,9 @@
       <c r="A27" s="18" t="s">
         <v>294</v>
       </c>
+      <c r="C27" s="18" t="s">
+        <v>394</v>
+      </c>
       <c r="D27" s="18" t="s">
         <v>326</v>
       </c>
@@ -11901,6 +13906,9 @@
       <c r="A28" s="18" t="s">
         <v>295</v>
       </c>
+      <c r="C28" s="18" t="s">
+        <v>395</v>
+      </c>
       <c r="D28" s="18" t="s">
         <v>326</v>
       </c>
@@ -11918,6 +13926,9 @@
       <c r="A29" s="18" t="s">
         <v>296</v>
       </c>
+      <c r="C29" s="18" t="s">
+        <v>396</v>
+      </c>
       <c r="D29" s="18" t="s">
         <v>326</v>
       </c>
@@ -11935,6 +13946,9 @@
       <c r="A30" s="18" t="s">
         <v>297</v>
       </c>
+      <c r="C30" s="18" t="s">
+        <v>397</v>
+      </c>
       <c r="D30" s="18" t="s">
         <v>326</v>
       </c>
@@ -11952,6 +13966,9 @@
       <c r="A31" s="18" t="s">
         <v>298</v>
       </c>
+      <c r="C31" s="18" t="s">
+        <v>398</v>
+      </c>
       <c r="D31" s="18" t="s">
         <v>326</v>
       </c>
@@ -11969,6 +13986,9 @@
       <c r="A32" s="18" t="s">
         <v>299</v>
       </c>
+      <c r="C32" s="18" t="s">
+        <v>399</v>
+      </c>
       <c r="D32" s="18" t="s">
         <v>326</v>
       </c>
@@ -11986,6 +14006,9 @@
       <c r="A33" s="18" t="s">
         <v>300</v>
       </c>
+      <c r="C33" s="18" t="s">
+        <v>400</v>
+      </c>
       <c r="D33" s="18" t="s">
         <v>326</v>
       </c>
@@ -12003,6 +14026,9 @@
       <c r="A34" s="18" t="s">
         <v>301</v>
       </c>
+      <c r="C34" s="18" t="s">
+        <v>401</v>
+      </c>
       <c r="D34" s="18" t="s">
         <v>343</v>
       </c>
@@ -12020,6 +14046,9 @@
       <c r="A35" s="18" t="s">
         <v>302</v>
       </c>
+      <c r="C35" s="18" t="s">
+        <v>402</v>
+      </c>
       <c r="D35" s="18" t="s">
         <v>343</v>
       </c>
@@ -12037,6 +14066,9 @@
       <c r="A36" s="18" t="s">
         <v>303</v>
       </c>
+      <c r="C36" s="18" t="s">
+        <v>403</v>
+      </c>
       <c r="D36" s="18" t="s">
         <v>343</v>
       </c>
@@ -12054,6 +14086,9 @@
       <c r="A37" s="18" t="s">
         <v>304</v>
       </c>
+      <c r="C37" s="18" t="s">
+        <v>404</v>
+      </c>
       <c r="D37" s="18" t="s">
         <v>343</v>
       </c>
@@ -12071,6 +14106,9 @@
       <c r="A38" s="18" t="s">
         <v>305</v>
       </c>
+      <c r="C38" s="18" t="s">
+        <v>405</v>
+      </c>
       <c r="D38" s="18" t="s">
         <v>343</v>
       </c>
@@ -12088,6 +14126,9 @@
       <c r="A39" s="18" t="s">
         <v>306</v>
       </c>
+      <c r="C39" s="18" t="s">
+        <v>406</v>
+      </c>
       <c r="D39" s="18" t="s">
         <v>343</v>
       </c>
@@ -12105,6 +14146,9 @@
       <c r="A40" s="18" t="s">
         <v>307</v>
       </c>
+      <c r="C40" s="18" t="s">
+        <v>407</v>
+      </c>
       <c r="D40" s="18" t="s">
         <v>343</v>
       </c>
@@ -12122,6 +14166,9 @@
       <c r="A41" s="18" t="s">
         <v>308</v>
       </c>
+      <c r="C41" s="18" t="s">
+        <v>408</v>
+      </c>
       <c r="D41" s="18" t="s">
         <v>343</v>
       </c>
@@ -12139,6 +14186,9 @@
       <c r="A42" s="18" t="s">
         <v>309</v>
       </c>
+      <c r="C42" s="18" t="s">
+        <v>409</v>
+      </c>
       <c r="D42" s="18" t="s">
         <v>343</v>
       </c>
@@ -12156,6 +14206,9 @@
       <c r="A43" s="18" t="s">
         <v>310</v>
       </c>
+      <c r="C43" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="D43" s="18" t="s">
         <v>343</v>
       </c>
@@ -12173,6 +14226,9 @@
       <c r="A44" s="18" t="s">
         <v>311</v>
       </c>
+      <c r="C44" s="18" t="s">
+        <v>411</v>
+      </c>
       <c r="D44" s="18" t="s">
         <v>343</v>
       </c>
@@ -12190,6 +14246,9 @@
       <c r="A45" s="18" t="s">
         <v>312</v>
       </c>
+      <c r="C45" s="18" t="s">
+        <v>412</v>
+      </c>
       <c r="D45" s="18" t="s">
         <v>343</v>
       </c>
@@ -12207,6 +14266,9 @@
       <c r="A46" s="18" t="s">
         <v>313</v>
       </c>
+      <c r="C46" s="18" t="s">
+        <v>413</v>
+      </c>
       <c r="D46" s="18" t="s">
         <v>343</v>
       </c>
@@ -12224,6 +14286,9 @@
       <c r="A47" s="18" t="s">
         <v>314</v>
       </c>
+      <c r="C47" s="18" t="s">
+        <v>414</v>
+      </c>
       <c r="D47" s="18" t="s">
         <v>343</v>
       </c>
@@ -12241,6 +14306,9 @@
       <c r="A48" s="18" t="s">
         <v>315</v>
       </c>
+      <c r="C48" s="18" t="s">
+        <v>415</v>
+      </c>
       <c r="D48" s="18" t="s">
         <v>326</v>
       </c>
@@ -12258,6 +14326,9 @@
       <c r="A49" s="18" t="s">
         <v>316</v>
       </c>
+      <c r="C49" s="18" t="s">
+        <v>416</v>
+      </c>
       <c r="D49" s="18" t="s">
         <v>326</v>
       </c>
@@ -12275,6 +14346,9 @@
       <c r="A50" s="18" t="s">
         <v>317</v>
       </c>
+      <c r="C50" s="18" t="s">
+        <v>417</v>
+      </c>
       <c r="D50" s="18" t="s">
         <v>326</v>
       </c>
@@ -12292,6 +14366,9 @@
       <c r="A51" s="18" t="s">
         <v>318</v>
       </c>
+      <c r="C51" s="18" t="s">
+        <v>418</v>
+      </c>
       <c r="D51" s="18" t="s">
         <v>326</v>
       </c>
@@ -12309,6 +14386,9 @@
       <c r="A52" s="18" t="s">
         <v>319</v>
       </c>
+      <c r="C52" s="18" t="s">
+        <v>419</v>
+      </c>
       <c r="D52" s="18" t="s">
         <v>326</v>
       </c>
@@ -12326,6 +14406,9 @@
       <c r="A53" s="18" t="s">
         <v>320</v>
       </c>
+      <c r="C53" s="18" t="s">
+        <v>420</v>
+      </c>
       <c r="D53" s="18" t="s">
         <v>326</v>
       </c>
@@ -12343,6 +14426,9 @@
       <c r="A54" s="18" t="s">
         <v>321</v>
       </c>
+      <c r="C54" s="18" t="s">
+        <v>421</v>
+      </c>
       <c r="D54" s="18" t="s">
         <v>326</v>
       </c>
@@ -12360,6 +14446,9 @@
       <c r="A55" s="18" t="s">
         <v>322</v>
       </c>
+      <c r="C55" s="18" t="s">
+        <v>422</v>
+      </c>
       <c r="D55" s="18" t="s">
         <v>326</v>
       </c>
@@ -12377,6 +14466,9 @@
       <c r="A56" s="18" t="s">
         <v>323</v>
       </c>
+      <c r="C56" s="18" t="s">
+        <v>423</v>
+      </c>
       <c r="D56" s="18" t="s">
         <v>343</v>
       </c>
@@ -12394,6 +14486,9 @@
       <c r="A57" s="18" t="s">
         <v>324</v>
       </c>
+      <c r="C57" s="18" t="s">
+        <v>424</v>
+      </c>
       <c r="D57" s="18" t="s">
         <v>343</v>
       </c>
@@ -12410,6 +14505,9 @@
     <row r="58" spans="1:19">
       <c r="A58" s="18" t="s">
         <v>325</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>425</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>343</v>
@@ -12428,26 +14526,33 @@
   <sheetProtection algorithmName="SHA-512" hashValue="4C55417S7/WEfM6p9p+2qxLa3pFuuwTQvkVS+xLflxPJ6JUMhmXb8UBi2EhWPKsWHpV7wPPZoM4Ci73L5pzjfA==" saltValue="OVPlytvnGy6tQU/SUgOtyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD2"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{55511F27-786D-4DA3-B997-DC65FAAF8ACA}" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD2"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="55" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:AD2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="55" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AD2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -12464,7 +14569,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -12588,17 +14693,17 @@
       <c r="E109" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F109" s="73" t="s">
+      <c r="F109" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="75"/>
+      <c r="G109" s="94"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="94"/>
+      <c r="N109" s="95"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="6" t="s">
@@ -13436,7 +15541,7 @@
       <c r="A144" s="41">
         <v>1</v>
       </c>
-      <c r="B144" s="76" t="s">
+      <c r="B144" s="96" t="s">
         <v>122</v>
       </c>
       <c r="C144" s="39" t="s">
@@ -13462,7 +15567,7 @@
       <c r="A145" s="41">
         <v>2</v>
       </c>
-      <c r="B145" s="77"/>
+      <c r="B145" s="97"/>
       <c r="C145" s="39" t="s">
         <v>128</v>
       </c>
@@ -13484,7 +15589,7 @@
       <c r="A146" s="59">
         <v>3</v>
       </c>
-      <c r="B146" s="77"/>
+      <c r="B146" s="97"/>
       <c r="C146" s="39" t="s">
         <v>9</v>
       </c>
@@ -13502,7 +15607,7 @@
       <c r="A147" s="59">
         <v>4</v>
       </c>
-      <c r="B147" s="77"/>
+      <c r="B147" s="97"/>
       <c r="C147" s="60" t="s">
         <v>256</v>
       </c>
@@ -13524,7 +15629,7 @@
       <c r="A148" s="59">
         <v>5</v>
       </c>
-      <c r="B148" s="77"/>
+      <c r="B148" s="97"/>
       <c r="C148" s="39" t="s">
         <v>253</v>
       </c>
@@ -13544,7 +15649,7 @@
       <c r="A149" s="59">
         <v>6</v>
       </c>
-      <c r="B149" s="77"/>
+      <c r="B149" s="97"/>
       <c r="C149" s="60" t="s">
         <v>254</v>
       </c>
@@ -13566,7 +15671,7 @@
       <c r="A150" s="59">
         <v>7</v>
       </c>
-      <c r="B150" s="77"/>
+      <c r="B150" s="97"/>
       <c r="C150" s="39" t="s">
         <v>130</v>
       </c>
@@ -13588,7 +15693,7 @@
       <c r="A151" s="59">
         <v>8</v>
       </c>
-      <c r="B151" s="77"/>
+      <c r="B151" s="97"/>
       <c r="C151" s="39" t="s">
         <v>246</v>
       </c>
@@ -13610,7 +15715,7 @@
       <c r="A152" s="59">
         <v>9</v>
       </c>
-      <c r="B152" s="77"/>
+      <c r="B152" s="97"/>
       <c r="C152" s="39" t="s">
         <v>55</v>
       </c>
@@ -13634,7 +15739,7 @@
       <c r="A153" s="59">
         <v>10</v>
       </c>
-      <c r="B153" s="78"/>
+      <c r="B153" s="83"/>
       <c r="C153" s="39" t="s">
         <v>136</v>
       </c>
@@ -13656,7 +15761,7 @@
       <c r="A154" s="59">
         <v>11</v>
       </c>
-      <c r="B154" s="72" t="s">
+      <c r="B154" s="79" t="s">
         <v>139</v>
       </c>
       <c r="C154" s="39" t="s">
@@ -13682,7 +15787,7 @@
       <c r="A155" s="59">
         <v>12</v>
       </c>
-      <c r="B155" s="72"/>
+      <c r="B155" s="79"/>
       <c r="C155" s="39" t="s">
         <v>247</v>
       </c>
@@ -13706,7 +15811,7 @@
       <c r="A156" s="59">
         <v>13</v>
       </c>
-      <c r="B156" s="76" t="s">
+      <c r="B156" s="96" t="s">
         <v>143</v>
       </c>
       <c r="C156" s="39" t="s">
@@ -13730,7 +15835,7 @@
       <c r="A157" s="59">
         <v>14</v>
       </c>
-      <c r="B157" s="78"/>
+      <c r="B157" s="83"/>
       <c r="C157" s="39" t="s">
         <v>146</v>
       </c>
@@ -13750,7 +15855,7 @@
       <c r="A158" s="59">
         <v>15</v>
       </c>
-      <c r="B158" s="72" t="s">
+      <c r="B158" s="79" t="s">
         <v>148</v>
       </c>
       <c r="C158" s="39" t="s">
@@ -13774,7 +15879,7 @@
       <c r="A159" s="59">
         <v>16</v>
       </c>
-      <c r="B159" s="72"/>
+      <c r="B159" s="79"/>
       <c r="C159" s="39" t="s">
         <v>152</v>
       </c>
@@ -13794,7 +15899,7 @@
       <c r="A160" s="59">
         <v>17</v>
       </c>
-      <c r="B160" s="72"/>
+      <c r="B160" s="79"/>
       <c r="C160" s="39" t="s">
         <v>153</v>
       </c>
@@ -13814,7 +15919,7 @@
       <c r="A161" s="59">
         <v>18</v>
       </c>
-      <c r="B161" s="72"/>
+      <c r="B161" s="79"/>
       <c r="C161" s="39" t="s">
         <v>154</v>
       </c>
@@ -13834,7 +15939,7 @@
       <c r="A162" s="59">
         <v>19</v>
       </c>
-      <c r="B162" s="72"/>
+      <c r="B162" s="79"/>
       <c r="C162" s="39" t="s">
         <v>155</v>
       </c>
@@ -13854,7 +15959,7 @@
       <c r="A163" s="59">
         <v>20</v>
       </c>
-      <c r="B163" s="72"/>
+      <c r="B163" s="79"/>
       <c r="C163" s="39" t="s">
         <v>156</v>
       </c>
@@ -13874,7 +15979,7 @@
       <c r="A164" s="59">
         <v>21</v>
       </c>
-      <c r="B164" s="72"/>
+      <c r="B164" s="79"/>
       <c r="C164" s="39" t="s">
         <v>157</v>
       </c>
@@ -13894,7 +15999,7 @@
       <c r="A165" s="59">
         <v>22</v>
       </c>
-      <c r="B165" s="72"/>
+      <c r="B165" s="79"/>
       <c r="C165" s="39" t="s">
         <v>158</v>
       </c>
@@ -13914,7 +16019,7 @@
       <c r="A166" s="59">
         <v>23</v>
       </c>
-      <c r="B166" s="72" t="s">
+      <c r="B166" s="79" t="s">
         <v>159</v>
       </c>
       <c r="C166" s="39" t="s">
@@ -13938,7 +16043,7 @@
       <c r="A167" s="59">
         <v>24</v>
       </c>
-      <c r="B167" s="72"/>
+      <c r="B167" s="79"/>
       <c r="C167" s="39" t="s">
         <v>163</v>
       </c>
@@ -13960,7 +16065,7 @@
       <c r="A168" s="59">
         <v>25</v>
       </c>
-      <c r="B168" s="72"/>
+      <c r="B168" s="79"/>
       <c r="C168" s="39" t="s">
         <v>166</v>
       </c>
@@ -13982,7 +16087,7 @@
       <c r="A169" s="59">
         <v>26</v>
       </c>
-      <c r="B169" s="72" t="s">
+      <c r="B169" s="79" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="39" t="s">
@@ -14006,7 +16111,7 @@
       <c r="A170" s="59">
         <v>27</v>
       </c>
-      <c r="B170" s="72"/>
+      <c r="B170" s="79"/>
       <c r="C170" s="39" t="s">
         <v>172</v>
       </c>
@@ -14028,7 +16133,7 @@
       <c r="A171" s="42">
         <v>28</v>
       </c>
-      <c r="B171" s="79"/>
+      <c r="B171" s="80"/>
       <c r="C171" s="40"/>
       <c r="D171" s="40"/>
       <c r="E171" s="40"/>
@@ -14064,11 +16169,11 @@
       <c r="B185" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C185" s="80" t="s">
+      <c r="C185" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D185" s="80"/>
-      <c r="E185" s="80"/>
+      <c r="D185" s="89"/>
+      <c r="E185" s="89"/>
       <c r="F185" s="34" t="s">
         <v>42</v>
       </c>
@@ -14077,17 +16182,17 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="72" t="s">
+      <c r="A186" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="B186" s="72" t="s">
+      <c r="B186" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="81" t="s">
+      <c r="C186" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="D186" s="81"/>
-      <c r="E186" s="81"/>
+      <c r="D186" s="90"/>
+      <c r="E186" s="90"/>
       <c r="F186" s="39" t="s">
         <v>183</v>
       </c>
@@ -14096,13 +16201,13 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="72"/>
-      <c r="B187" s="72"/>
-      <c r="C187" s="82" t="s">
+      <c r="A187" s="79"/>
+      <c r="B187" s="79"/>
+      <c r="C187" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D187" s="82"/>
-      <c r="E187" s="82"/>
+      <c r="D187" s="91"/>
+      <c r="E187" s="91"/>
       <c r="F187" s="39" t="s">
         <v>185</v>
       </c>
@@ -14111,15 +16216,15 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="72"/>
-      <c r="B188" s="72" t="s">
+      <c r="A188" s="79"/>
+      <c r="B188" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="83" t="s">
+      <c r="C188" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="D188" s="83"/>
-      <c r="E188" s="83"/>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92"/>
       <c r="F188" s="39" t="s">
         <v>183</v>
       </c>
@@ -14128,13 +16233,13 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="72"/>
-      <c r="B189" s="72"/>
-      <c r="C189" s="83" t="s">
+      <c r="A189" s="79"/>
+      <c r="B189" s="79"/>
+      <c r="C189" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="D189" s="83"/>
-      <c r="E189" s="83"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
       <c r="F189" s="39" t="s">
         <v>185</v>
       </c>
@@ -14143,17 +16248,17 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="84" t="s">
+      <c r="A190" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="B190" s="72" t="s">
+      <c r="B190" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="72" t="s">
+      <c r="C190" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D190" s="72"/>
-      <c r="E190" s="72"/>
+      <c r="D190" s="79"/>
+      <c r="E190" s="79"/>
       <c r="F190" s="39" t="s">
         <v>183</v>
       </c>
@@ -14162,13 +16267,13 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="84"/>
-      <c r="B191" s="72"/>
-      <c r="C191" s="72" t="s">
+      <c r="A191" s="77"/>
+      <c r="B191" s="79"/>
+      <c r="C191" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D191" s="72"/>
-      <c r="E191" s="72"/>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
       <c r="F191" s="39" t="s">
         <v>185</v>
       </c>
@@ -14177,15 +16282,15 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="84"/>
-      <c r="B192" s="72" t="s">
+      <c r="A192" s="77"/>
+      <c r="B192" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="72" t="s">
+      <c r="C192" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="D192" s="72"/>
-      <c r="E192" s="72"/>
+      <c r="D192" s="79"/>
+      <c r="E192" s="79"/>
       <c r="F192" s="39" t="s">
         <v>183</v>
       </c>
@@ -14194,13 +16299,13 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="84"/>
-      <c r="B193" s="72"/>
-      <c r="C193" s="72" t="s">
+      <c r="A193" s="77"/>
+      <c r="B193" s="79"/>
+      <c r="C193" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D193" s="72"/>
-      <c r="E193" s="72"/>
+      <c r="D193" s="79"/>
+      <c r="E193" s="79"/>
       <c r="F193" s="39" t="s">
         <v>185</v>
       </c>
@@ -14209,17 +16314,17 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="84" t="s">
+      <c r="A194" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="72" t="s">
+      <c r="B194" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="72" t="s">
+      <c r="C194" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D194" s="72"/>
-      <c r="E194" s="72"/>
+      <c r="D194" s="79"/>
+      <c r="E194" s="79"/>
       <c r="F194" s="39" t="s">
         <v>183</v>
       </c>
@@ -14228,13 +16333,13 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="84"/>
-      <c r="B195" s="72"/>
-      <c r="C195" s="72" t="s">
+      <c r="A195" s="77"/>
+      <c r="B195" s="79"/>
+      <c r="C195" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D195" s="72"/>
-      <c r="E195" s="72"/>
+      <c r="D195" s="79"/>
+      <c r="E195" s="79"/>
       <c r="F195" s="39" t="s">
         <v>185</v>
       </c>
@@ -14243,15 +16348,15 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="84"/>
-      <c r="B196" s="72" t="s">
+      <c r="A196" s="77"/>
+      <c r="B196" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="72" t="s">
+      <c r="C196" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="D196" s="72"/>
-      <c r="E196" s="72"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
       <c r="F196" s="39" t="s">
         <v>183</v>
       </c>
@@ -14260,13 +16365,13 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A197" s="86"/>
-      <c r="B197" s="79"/>
-      <c r="C197" s="79" t="s">
+      <c r="A197" s="78"/>
+      <c r="B197" s="80"/>
+      <c r="C197" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="D197" s="79"/>
-      <c r="E197" s="79"/>
+      <c r="D197" s="80"/>
+      <c r="E197" s="80"/>
       <c r="F197" s="40" t="s">
         <v>185</v>
       </c>
@@ -14305,12 +16410,12 @@
       <c r="A202" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B202" s="87" t="s">
+      <c r="B202" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="87"/>
-      <c r="D202" s="87"/>
-      <c r="E202" s="87"/>
+      <c r="C202" s="81"/>
+      <c r="D202" s="81"/>
+      <c r="E202" s="81"/>
       <c r="F202" s="22" t="s">
         <v>199</v>
       </c>
@@ -14322,12 +16427,12 @@
       <c r="A203" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="88" t="s">
+      <c r="B203" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="78"/>
-      <c r="D203" s="78"/>
-      <c r="E203" s="78"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
+      <c r="E203" s="83"/>
       <c r="F203" s="36" t="s">
         <v>203</v>
       </c>
@@ -14339,12 +16444,12 @@
       <c r="A204" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="89" t="s">
+      <c r="B204" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C204" s="90"/>
-      <c r="D204" s="90"/>
-      <c r="E204" s="91"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="86"/>
       <c r="F204" s="10" t="s">
         <v>184</v>
       </c>
@@ -14356,12 +16461,12 @@
       <c r="A205" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B205" s="89" t="s">
+      <c r="B205" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="C205" s="90"/>
-      <c r="D205" s="90"/>
-      <c r="E205" s="91"/>
+      <c r="C205" s="85"/>
+      <c r="D205" s="85"/>
+      <c r="E205" s="86"/>
       <c r="F205" s="46" t="s">
         <v>231</v>
       </c>
@@ -14373,12 +16478,12 @@
       <c r="A206" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B206" s="92" t="s">
+      <c r="B206" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="C206" s="79"/>
-      <c r="D206" s="79"/>
-      <c r="E206" s="79"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="80"/>
+      <c r="E206" s="80"/>
       <c r="F206" s="13" t="s">
         <v>184</v>
       </c>
@@ -14423,11 +16528,11 @@
       <c r="C211" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D211" s="93" t="s">
+      <c r="D211" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E211" s="93"/>
-      <c r="F211" s="93"/>
+      <c r="E211" s="88"/>
+      <c r="F211" s="88"/>
       <c r="G211" s="32"/>
     </row>
     <row r="212" spans="1:7">
@@ -14440,11 +16545,11 @@
       <c r="C212" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D212" s="85" t="s">
+      <c r="D212" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E212" s="85"/>
-      <c r="F212" s="85"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
       <c r="G212" s="24"/>
     </row>
     <row r="213" spans="1:7">
@@ -14457,11 +16562,11 @@
       <c r="C213" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D213" s="85" t="s">
+      <c r="D213" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="E213" s="85"/>
-      <c r="F213" s="85"/>
+      <c r="E213" s="72"/>
+      <c r="F213" s="72"/>
       <c r="G213" s="24"/>
     </row>
     <row r="214" spans="1:7">
@@ -14474,11 +16579,11 @@
       <c r="C214" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="D214" s="85" t="s">
+      <c r="D214" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="E214" s="85"/>
-      <c r="F214" s="85"/>
+      <c r="E214" s="72"/>
+      <c r="F214" s="72"/>
       <c r="G214" s="24"/>
     </row>
     <row r="215" spans="1:7">
@@ -14491,11 +16596,11 @@
       <c r="C215" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D215" s="85" t="s">
+      <c r="D215" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="E215" s="85"/>
-      <c r="F215" s="85"/>
+      <c r="E215" s="72"/>
+      <c r="F215" s="72"/>
       <c r="G215" s="24"/>
     </row>
     <row r="216" spans="1:7">
@@ -14508,11 +16613,11 @@
       <c r="C216" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="D216" s="85" t="s">
+      <c r="D216" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E216" s="85"/>
-      <c r="F216" s="85"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="72"/>
       <c r="G216" s="24"/>
     </row>
     <row r="217" spans="1:7">
@@ -14525,11 +16630,11 @@
       <c r="C217" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D217" s="95" t="s">
+      <c r="D217" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="E217" s="96"/>
-      <c r="F217" s="97"/>
+      <c r="E217" s="75"/>
+      <c r="F217" s="76"/>
       <c r="G217" s="53"/>
     </row>
     <row r="218" spans="1:7">
@@ -14542,11 +16647,11 @@
       <c r="C218" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D218" s="95" t="s">
+      <c r="D218" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="E218" s="96"/>
-      <c r="F218" s="97"/>
+      <c r="E218" s="75"/>
+      <c r="F218" s="76"/>
       <c r="G218" s="53"/>
     </row>
     <row r="219" spans="1:7">
@@ -14559,11 +16664,11 @@
       <c r="C219" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D219" s="95" t="s">
+      <c r="D219" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="E219" s="96"/>
-      <c r="F219" s="97"/>
+      <c r="E219" s="75"/>
+      <c r="F219" s="76"/>
       <c r="G219" s="53"/>
     </row>
     <row r="220" spans="1:7">
@@ -14610,31 +16715,50 @@
       <c r="C222" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D222" s="94" t="s">
+      <c r="D222" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="E222" s="94"/>
-      <c r="F222" s="94"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
       <c r="G222" s="25"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZC0B/yWBsnsNoiYGsylBtDFjHlFkDcsc5FbUMdgfxj9Hei+XekJLxNRsfmgfru30ZY2RAy7fdFIuraUAtim1lw==" saltValue="HBb3PLugL4bod/dSynZVew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+    <customSheetView guid="{55511F27-786D-4DA3-B997-DC65FAAF8ACA}" scale="115">
       <selection activeCell="D224" sqref="D224"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <selection activeCell="D224" sqref="D224"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="44">
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D215:F215"/>
-    <mergeCell ref="D216:F216"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="D217:F217"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="F109:N109"/>
+    <mergeCell ref="B144:B153"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="C193:E193"/>
     <mergeCell ref="D212:F212"/>
     <mergeCell ref="A194:A197"/>
     <mergeCell ref="B194:B195"/>
@@ -14649,33 +16773,19 @@
     <mergeCell ref="B206:E206"/>
     <mergeCell ref="D211:F211"/>
     <mergeCell ref="B205:E205"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="C193:E193"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="F109:N109"/>
-    <mergeCell ref="B144:B153"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D219:F219"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -14694,15 +16804,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{55511F27-786D-4DA3-B997-DC65FAAF8ACA}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
